--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1973.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1973.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"bank" + 0.001*"exchange" + 0.001*"import" + 0.001*"foreign" + 0.001*"may" + 0.001*"country" + 0.001*"account" + 0.001*"ing" + 0.001*"resident" + 0.001*"export"</t>
-  </si>
-  <si>
-    <t>0.004*"import" + 0.004*"exchange" + 0.003*"may" + 0.003*"export" + 0.003*"bank" + 0.003*"rate" + 0.003*"foreign" + 0.003*"account" + 0.002*"ing" + 0.002*"per"</t>
-  </si>
-  <si>
-    <t>0.001*"bank" + 0.001*"import" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"may" + 0.001*"export" + 0.001*"rom" + 0.001*"currency" + 0.001*"rate" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.015*"import" + 0.014*"exchange" + 0.014*"bank" + 0.012*"foreign" + 0.011*"may" + 0.010*"export" + 0.009*"per" + 0.009*"account" + 0.008*"currency" + 0.008*"ing"</t>
-  </si>
-  <si>
-    <t>0.002*"bank" + 0.002*"import" + 0.001*"exchange" + 0.001*"foreign" + 0.001*"may" + 0.001*"country" + 0.001*"currency" + 0.001*"account" + 0.001*"ing" + 0.001*"export"</t>
+    <t>0.071*"import" + 0.043*"export" + 0.025*"license" + 0.018*"good" + 0.015*"certain" + 0.014*"require" + 0.014*"subject" + 0.012*"per" + 0.012*"cent" + 0.010*"finance"</t>
+  </si>
+  <si>
+    <t>0.046*"rate" + 0.038*"exchange" + 0.030*"u" + 0.024*"currency" + 0.022*"sterling" + 0.021*"area" + 0.020*"dollar" + 0.020*"control" + 0.018*"country" + 0.018*"market"</t>
+  </si>
+  <si>
+    <t>0.025*"ing" + 0.023*"ion" + 0.022*"th" + 0.018*"ly" + 0.017*"t" + 0.016*"ts" + 0.014*"ign" + 0.013*"ta" + 0.012*"te" + 0.012*"fo"</t>
+  </si>
+  <si>
+    <t>0.076*"bank" + 0.030*"exchange" + 0.023*"payment" + 0.018*"gold" + 0.017*"foreign" + 0.016*"central" + 0.014*"must" + 0.013*"authorize" + 0.013*"invisibles" + 0.012*"authorized"</t>
+  </si>
+  <si>
+    <t>0.039*"may" + 0.032*"foreign" + 0.029*"account" + 0.022*"resident" + 0.019*"currency" + 0.017*"per" + 0.016*"capital" + 0.016*"nonresident" + 0.015*"abroad" + 0.014*"fund"</t>
   </si>
 </sst>
 </file>
